--- a/Current Build/Output/Test_Output_Consistency_And_Completeness.xlsx
+++ b/Current Build/Output/Test_Output_Consistency_And_Completeness.xlsx
@@ -402,12 +402,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSU281726</t>
+          <t>TST281726</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,12 +434,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSU334768</t>
+          <t>TST334768</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSU334768</t>
+          <t>TST334768</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +511,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU305590</t>
+          <t>TST305590</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSU305590</t>
+          <t>TST305590</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -543,12 +543,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSU341619</t>
+          <t>TST341619</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSU341619</t>
+          <t>TST341619</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -575,12 +575,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CSU335848</t>
+          <t>TST335848</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CSI335848</t>
+          <t>TSTCSI335848</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -688,12 +688,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CSU339706</t>
+          <t>TST339706</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CSU339706</t>
+          <t>TST339706</t>
         </is>
       </c>
       <c r="C2" s="2">
@@ -706,12 +706,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CSU339968</t>
+          <t>TST339968</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CSU339968</t>
+          <t>TST339968</t>
         </is>
       </c>
       <c r="C3" s="2">
@@ -724,12 +724,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>349664</t>
+          <t>TST349664</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>349664</t>
+          <t>TST349664</t>
         </is>
       </c>
       <c r="C4" s="2">
@@ -742,12 +742,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CSU341608</t>
+          <t>TST341608</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CSU341608</t>
+          <t>TST341608</t>
         </is>
       </c>
       <c r="C5" s="2">
